--- a/biology/Zoologie/Alzadasaurus/Alzadasaurus.xlsx
+++ b/biology/Zoologie/Alzadasaurus/Alzadasaurus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Alzadasaurus est un genre éteint de plésiosaures de la famille des Elasmosauridae.
 </t>
@@ -511,7 +523,9 @@
           <t>Origine du nom</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce plésiosaure carnivore au long cou a d'abord été nommé par Samuel Paul Welles en 1943 d'après la ville d'Alzada (Montana) proche du lieu où les spécimens ont été trouvés.
 </t>
@@ -542,9 +556,11 @@
           <t>Synonymie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Kenneth Carpenter, l'espèce Alzadasaurus riggsi Welles 1943 est synonyme de Thalassomedon hanningtoni (ou haningtoni) Welles 1943[1]. Ces deux espèces distinctes pour Welles n'en font qu'une pour Carpenter.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Kenneth Carpenter, l'espèce Alzadasaurus riggsi Welles 1943 est synonyme de Thalassomedon hanningtoni (ou haningtoni) Welles 1943. Ces deux espèces distinctes pour Welles n'en font qu'une pour Carpenter.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Welles, 1943 : Elasmosaurid Plesiosaurs with description of new material from California and Colorado. Memoirs of the University of California, vol. 13, n. 3, p. 125-215.</t>
         </is>
